--- a/유닉스프로그래밍/과제 2/테스트케이스 V1.2.xlsx
+++ b/유닉스프로그래밍/과제 2/테스트케이스 V1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\임채선\Desktop\Git\SMU\유닉스프로그래밍\과제 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D59FFF-2EC4-4A93-99A6-5E36028CF6E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8625FB-F50D-4C86-A4B9-834D282DCC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="135">
-  <si>
-    <t>TestCase ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="136">
   <si>
     <t>테스트 목적</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,6 +608,14 @@
   </si>
   <si>
     <t>오타 교정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +626,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,14 +694,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1019,26 +1017,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1048,6 +1028,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,55 +1355,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="34.375" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="41.25" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1413,13 +1413,13 @@
         <v>43804</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1427,13 +1427,13 @@
         <v>43806</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1441,13 +1441,13 @@
         <v>43807</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,36 +1570,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K317"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="46.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="46" style="11" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="42.625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="32.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="40.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="30" style="11" customWidth="1"/>
+    <col min="8" max="8" width="29.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="11" customWidth="1"/>
+    <col min="10" max="10" width="11" style="23" customWidth="1"/>
     <col min="11" max="11" width="9" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="13">
         <f>COUNTA($I$8:$I$163)</f>
@@ -1608,7 +1611,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="13">
         <f>COUNTIF($I$8:$I$163,"pass")</f>
@@ -1617,692 +1620,738 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="13">
         <f>COUNTIF($I$8:$I$163,"fail")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="12" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="J10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="F11" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="J12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="25" t="s">
+      <c r="H13" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="31"/>
-      <c r="C9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="K13" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="81" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="81" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="81" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="81" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="81" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="101.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="101.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="101.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="101.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="141.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="C10" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
-      <c r="C16" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
-      <c r="C17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-      <c r="C19" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B20" s="31"/>
-      <c r="C20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="31"/>
-      <c r="C21" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="25" t="s">
+      <c r="F30" s="31"/>
+      <c r="G30" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="31"/>
-      <c r="C22" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="31"/>
-      <c r="C24" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="31"/>
-      <c r="C25" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="31"/>
-      <c r="C27" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="31"/>
-      <c r="C28" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B29" s="31"/>
-      <c r="C29" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="10"/>
+      <c r="K30" s="33" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="23"/>
@@ -2312,39 +2361,39 @@
     </row>
     <row r="32" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
+      <c r="D32" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="23"/>
@@ -4067,6 +4116,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>